--- a/src/ScreenLayout.xlsx
+++ b/src/ScreenLayout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HobbyProjects\DriveAssistant\GPS\LCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd3bccd6dbaea2b/GitGud/DriveAssistant/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B7BA3B-4BEE-4F39-BAD9-2E01A40BAD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{F2B7BA3B-4BEE-4F39-BAD9-2E01A40BAD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{138ABE1F-1644-4025-991C-A83D3C6A8643}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1DBE532-1562-471F-B5CB-E7B2DF0673F1}"/>
+    <workbookView xWindow="-4140" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{E1DBE532-1562-471F-B5CB-E7B2DF0673F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -157,6 +157,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,18 +498,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18567E9D-DD3C-421E-A5F3-A80E34113D9A}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="21" width="3.77734375" customWidth="1"/>
+    <col min="2" max="21" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -565,7 +571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -622,7 +628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -659,7 +665,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -700,7 +706,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -757,23 +763,108 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
